--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_8_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_8_.xlsx
@@ -423,342 +423,342 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.732706936959248</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1849808797025569</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6718270807762725</v>
+        <v>0.672838158291254</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7139881697477057</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796134125114</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1619105542475395</v>
+        <v>0.161907685808031</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.778198450881831</v>
+        <v>1.778290465355663</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1849657442950422</v>
+        <v>0.1934420031981677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6718673894125013</v>
+        <v>0.6758680428538398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7139630205085248</v>
+        <v>0.7014865303281086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.57079614350999</v>
+        <v>1.570796289207822</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2074020716963607</v>
+        <v>0.2074941448287797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.982030593374731</v>
+        <v>1.982548021645145</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1848979276348522</v>
+        <v>0.1885640474137254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672047998826764</v>
+        <v>0.6894439344574702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7138503352434651</v>
+        <v>0.6927887024582571</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796185560455</v>
+        <v>1.570796272895559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4112342299891454</v>
+        <v>0.411751704308488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.268803065118748</v>
+        <v>2.269919010210249</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1848025160327847</v>
+        <v>0.1817012267601512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6723020991247588</v>
+        <v>0.708543924987362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7136917977743737</v>
+        <v>0.680551684456407</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796244721467</v>
+        <v>1.570796249945755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6980067239621013</v>
+        <v>0.6991226973619369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.472635207611648</v>
+        <v>2.474176566499732</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1847346993725947</v>
+        <v>0.1768232709757089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6724827085390215</v>
+        <v>0.7221198165909923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7135791125093141</v>
+        <v>0.6718538565865555</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796286771933</v>
+        <v>1.570796233633492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9018388822548866</v>
+        <v>0.9033802568416449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.51812672153423</v>
+        <v>2.519763024808483</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1847195639650801</v>
+        <v>0.1757346026687003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6725230171752503</v>
+        <v>0.7251497011535781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7135539632701331</v>
+        <v>0.6699126644232472</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796296156808</v>
+        <v>1.570796229992901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9473303997037077</v>
+        <v>0.9489667158623929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.899384632600809</v>
+        <v>1.900875918751935</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03648454082200218</v>
+        <v>0.05335115204042857</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18289791356248</v>
+        <v>1.199938781730575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3514135960163092</v>
+        <v>0.3175060894984869</v>
       </c>
       <c r="E7" t="n">
-        <v>1.570796335231478</v>
+        <v>1.570796342143612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3285882746238378</v>
+        <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.638520741006903</v>
+        <v>1.639788217465948</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05878679738128223</v>
+        <v>0.07454629022105426</v>
       </c>
       <c r="C8" t="n">
-        <v>1.106148632147423</v>
+        <v>1.120803451180303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4058606917710165</v>
+        <v>0.3754463736539357</v>
       </c>
       <c r="E8" t="n">
-        <v>1.570796329546644</v>
+        <v>1.570796332944535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06772438770505351</v>
+        <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.360510694198072</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08255494464039051</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="C9" t="n">
-        <v>1.024354746499346</v>
+        <v>1.036466685305622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4638865057189854</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="E9" t="n">
-        <v>1.570796323488156</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.210285654121368</v>
+        <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.082500647389242</v>
+        <v>1.083291083177064</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1063230918994988</v>
+        <v>0.1197228098360293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9425608608512694</v>
+        <v>0.9521299194309416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5219123196669542</v>
+        <v>0.4989435814257883</v>
       </c>
       <c r="E10" t="n">
-        <v>1.570796317429667</v>
+        <v>1.570796313337101</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4882956959477893</v>
+        <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8216367557953357</v>
+        <v>0.8222033818910772</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1286253484587788</v>
+        <v>0.140917948016655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8658115794362121</v>
+        <v>0.8729945888806701</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5763594154216616</v>
+        <v>0.5568838655812371</v>
       </c>
       <c r="E11" t="n">
-        <v>1.570796311744834</v>
+        <v>1.570796304138024</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7491595828665731</v>
+        <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5934191437306482</v>
+        <v>0.5937899691995894</v>
       </c>
       <c r="B12" t="n">
-        <v>0.148136549125586</v>
+        <v>0.1594605826197359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7986672244808241</v>
+        <v>0.8037627911880737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6239926317363989</v>
+        <v>0.6075731089698566</v>
       </c>
       <c r="E12" t="n">
-        <v>1.570796306771439</v>
+        <v>1.570796296090182</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9773771908412165</v>
+        <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4100558737082065</v>
+        <v>0.410269381593821</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1638129797216424</v>
+        <v>0.1743588110469463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.744719554199015</v>
+        <v>0.7481379483041316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6622639212575638</v>
+        <v>0.6482997879435473</v>
       </c>
       <c r="E13" t="n">
-        <v>1.570796302775525</v>
+        <v>1.570796289624078</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.160740457577478</v>
+        <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2788169155391391</v>
+        <v>0.2789178261977563</v>
       </c>
       <c r="B14" t="n">
-        <v>0.175033102590221</v>
+        <v>0.1850219497284968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7061074807855859</v>
+        <v>0.7083254688063935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6896559074712136</v>
+        <v>0.6774491749365862</v>
       </c>
       <c r="E14" t="n">
-        <v>1.570796299915521</v>
+        <v>1.570796284996081</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.291979413394523</v>
+        <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2003881154320393</v>
+        <v>0.2004217376457329</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1817382821033287</v>
+        <v>0.1913942737993129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6830327884098565</v>
+        <v>0.6845334101078362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7060254416496176</v>
+        <v>0.6948689371597545</v>
       </c>
       <c r="E15" t="n">
-        <v>1.570796298206374</v>
+        <v>1.570796282230376</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.370408212096044</v>
+        <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.167225165092344</v>
+        <v>0.1672303349600339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18457351016889</v>
+        <v>0.194088756775214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.673275851209298</v>
+        <v>0.6744731406657185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7129471597978114</v>
+        <v>0.7022347352944619</v>
       </c>
       <c r="E16" t="n">
-        <v>1.570796297483676</v>
+        <v>1.570796281060922</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.403571161841407</v>
+        <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1619075708216884</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1850281317379298</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6717113512831652</v>
+        <v>0.6728600021904421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7140570396001484</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="E17" t="n">
-        <v>1.570796297367793</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.408888756016757</v>
+        <v>-1.40888814573956</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_8_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_8_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,341 +423,392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>1.732704007046913</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>0.1945306715051764</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>0.672838158291254</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.7034277224914169</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796292848413</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>0.161907685808031</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2212268479722121</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.778290465355663</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1934420031981677</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.6758680428538398</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.7014865303281086</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796289207822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2074941448287797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4424536959444241</v>
+      </c>
+      <c r="B3" t="n">
         <v>1.982548021645145</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1885640474137254</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.6894439344574702</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.6927887024582571</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796272895559</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.411751704308488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6636805439166362</v>
+      </c>
+      <c r="B4" t="n">
         <v>2.269919010210249</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1817012267601512</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.708543924987362</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.680551684456407</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796249945755</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6991226973619369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8849073918888483</v>
+      </c>
+      <c r="B5" t="n">
         <v>2.474176566499732</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1768232709757089</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.7221198165909923</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.6718538565865555</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796233633492</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.9033802568416449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.10613423986106</v>
+      </c>
+      <c r="B6" t="n">
         <v>2.519763024808483</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1757346026687003</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.7251497011535781</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.6699126644232472</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796229992901</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.9489667158623929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1.264473243688114</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.900875918751935</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.05335115204042857</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.199938781730575</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3175060894984869</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.570796342143612</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1.475218784302799</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.639788217465948</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.07454629022105426</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.120803451180303</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.3754463736539357</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.570796332944535</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1.685964324917485</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.361539650321506</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.09713455002854179</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.036466685305622</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.437194977539862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.570796323140818</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1.896709865532171</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.083291083177064</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1197228098360293</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9521299194309416</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.4989435814257883</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.570796313337101</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2.107455406146856</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.8222033818910772</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.140917948016655</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.8729945888806701</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5568838655812371</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.570796304138024</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2.318200946761542</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.5937899691995894</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1594605826197359</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8037627911880737</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.6075731089698566</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.570796296090182</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2.528946487376227</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.410269381593821</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.1743588110469463</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.7481379483041316</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.6482997879435473</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.570796289624078</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>2.739692027990913</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.2789178261977563</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1850219497284968</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.7083254688063935</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6774491749365862</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.570796284996081</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2.950437568605599</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.2004217376457329</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1913942737993129</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.6845334101078362</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.6948689371597545</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.570796282230376</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>3.161183109220284</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.1672303349600339</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.194088756775214</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.6744731406657185</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.7022347352944619</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.570796281060922</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>3.37192864983497</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.1619081784284635</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.1945208102290914</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.6728600021904421</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.7034158221868742</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.570796280873402</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-1.40888814573956</v>
       </c>
     </row>
